--- a/output/damage/PHL_osm_fl_rcp8p5_damage_2.xlsx
+++ b/output/damage/PHL_osm_fl_rcp8p5_damage_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1138.707912420169</v>
+        <v>97.82693905943621</v>
       </c>
       <c r="F2" t="n">
-        <v>854.0309343151268</v>
+        <v>73.37020429457715</v>
       </c>
       <c r="G2" t="n">
-        <v>1423.384890525212</v>
+        <v>122.2836738242953</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E3" t="n">
-        <v>22925.18984245929</v>
+        <v>319.0991380948889</v>
       </c>
       <c r="F3" t="n">
-        <v>17193.89238184447</v>
+        <v>239.3243535711666</v>
       </c>
       <c r="G3" t="n">
-        <v>28656.48730307411</v>
+        <v>398.8739226186112</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1215.407671366869</v>
+        <v>4.449094486384519</v>
       </c>
       <c r="F4" t="n">
-        <v>911.5557535251517</v>
+        <v>3.33682086478839</v>
       </c>
       <c r="G4" t="n">
-        <v>1519.259589208586</v>
+        <v>5.561368107980647</v>
       </c>
     </row>
     <row r="5">
@@ -558,27 +558,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26589.97122000043</v>
+        <v>5.789730720790475</v>
       </c>
       <c r="F5" t="n">
-        <v>19942.47841500033</v>
+        <v>4.342298040592857</v>
       </c>
       <c r="G5" t="n">
-        <v>33237.46402500054</v>
+        <v>7.237163400988096</v>
       </c>
     </row>
     <row r="6">
@@ -587,12 +587,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5656.313390969762</v>
+        <v>7.698433156215909</v>
       </c>
       <c r="F6" t="n">
-        <v>4242.235043227321</v>
+        <v>5.773824867161931</v>
       </c>
       <c r="G6" t="n">
-        <v>7070.391738712202</v>
+        <v>9.623041445269886</v>
       </c>
     </row>
     <row r="7">
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40479.40492590661</v>
+        <v>4.665717064373279</v>
       </c>
       <c r="F7" t="n">
-        <v>30359.55369442996</v>
+        <v>3.499287798279958</v>
       </c>
       <c r="G7" t="n">
-        <v>50599.25615738326</v>
+        <v>5.832146330466598</v>
       </c>
     </row>
     <row r="8">
@@ -645,27 +645,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11833.36817540716</v>
+        <v>113.4653851072363</v>
       </c>
       <c r="F8" t="n">
-        <v>8875.026131555367</v>
+        <v>85.0990388304272</v>
       </c>
       <c r="G8" t="n">
-        <v>14791.71021925895</v>
+        <v>141.8317313840454</v>
       </c>
     </row>
     <row r="9">
@@ -674,27 +674,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E9" t="n">
-        <v>51742.37824728322</v>
+        <v>370.1097769125315</v>
       </c>
       <c r="F9" t="n">
-        <v>38806.78368546241</v>
+        <v>277.5823326843985</v>
       </c>
       <c r="G9" t="n">
-        <v>64677.97280910402</v>
+        <v>462.6372211406644</v>
       </c>
     </row>
     <row r="10">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18310.33449509287</v>
+        <v>4.748771401697695</v>
       </c>
       <c r="F10" t="n">
-        <v>13732.75087131965</v>
+        <v>3.561578551273272</v>
       </c>
       <c r="G10" t="n">
-        <v>22887.91811886609</v>
+        <v>5.935964252122117</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>74046.08221806142</v>
+        <v>6.179708647357367</v>
       </c>
       <c r="F11" t="n">
-        <v>55534.56166354606</v>
+        <v>4.634781485518026</v>
       </c>
       <c r="G11" t="n">
-        <v>92557.60277257676</v>
+        <v>7.724635809196711</v>
       </c>
     </row>
     <row r="12">
@@ -761,12 +761,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24977.56369914474</v>
+        <v>8.216975234398259</v>
       </c>
       <c r="F12" t="n">
-        <v>18733.17277435855</v>
+        <v>6.162731425798694</v>
       </c>
       <c r="G12" t="n">
-        <v>31221.95462393092</v>
+        <v>10.27121904299782</v>
       </c>
     </row>
     <row r="13">
@@ -790,27 +790,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102514.9041935136</v>
+        <v>4.9799849905444</v>
       </c>
       <c r="F13" t="n">
-        <v>76886.17814513519</v>
+        <v>3.7349887429083</v>
       </c>
       <c r="G13" t="n">
-        <v>128143.630241892</v>
+        <v>6.224981238180499</v>
       </c>
     </row>
     <row r="14">
@@ -819,27 +819,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34849.96066091987</v>
+        <v>172.7347213288814</v>
       </c>
       <c r="F14" t="n">
-        <v>26137.4704956899</v>
+        <v>129.551040996661</v>
       </c>
       <c r="G14" t="n">
-        <v>43562.45082614985</v>
+        <v>215.9184016611017</v>
       </c>
     </row>
     <row r="15">
@@ -848,27 +848,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E15" t="n">
-        <v>180574.1291019729</v>
+        <v>563.438877113575</v>
       </c>
       <c r="F15" t="n">
-        <v>135430.5968264797</v>
+        <v>422.5791578351811</v>
       </c>
       <c r="G15" t="n">
-        <v>225717.6613774661</v>
+        <v>704.2985963919689</v>
       </c>
     </row>
     <row r="16">
@@ -877,12 +877,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49169.31786514526</v>
+        <v>22.100024463289</v>
       </c>
       <c r="F16" t="n">
-        <v>36876.98839885894</v>
+        <v>16.57501834746675</v>
       </c>
       <c r="G16" t="n">
-        <v>61461.64733143157</v>
+        <v>27.62503057911124</v>
       </c>
     </row>
     <row r="17">
@@ -906,27 +906,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>268402.7330788143</v>
+        <v>28.75937810646596</v>
       </c>
       <c r="F17" t="n">
-        <v>201302.0498091108</v>
+        <v>21.56953357984947</v>
       </c>
       <c r="G17" t="n">
-        <v>335503.4163485179</v>
+        <v>35.94922263308246</v>
       </c>
     </row>
     <row r="18">
@@ -935,12 +935,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>69584.99612477441</v>
+        <v>38.24049176793827</v>
       </c>
       <c r="F18" t="n">
-        <v>52188.74709358079</v>
+        <v>28.6803688259537</v>
       </c>
       <c r="G18" t="n">
-        <v>86981.245155968</v>
+        <v>47.80061470992283</v>
       </c>
     </row>
     <row r="19">
@@ -964,27 +964,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>357549.0557426747</v>
+        <v>23.17605561693228</v>
       </c>
       <c r="F19" t="n">
-        <v>268161.791807006</v>
+        <v>17.38204171269921</v>
       </c>
       <c r="G19" t="n">
-        <v>446936.3196783434</v>
+        <v>28.97006952116535</v>
       </c>
     </row>
     <row r="20">
@@ -993,27 +993,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rp1000</t>
+          <t>rp0010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>89439.99360934523</v>
+        <v>220.7963606134426</v>
       </c>
       <c r="F20" t="n">
-        <v>67079.99520700891</v>
+        <v>165.5972704600819</v>
       </c>
       <c r="G20" t="n">
-        <v>111799.9920116815</v>
+        <v>275.9954507668032</v>
       </c>
     </row>
     <row r="21">
@@ -1022,27 +1022,1187 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>720.2098833270381</v>
+      </c>
+      <c r="F21" t="n">
+        <v>540.1574124952784</v>
+      </c>
+      <c r="G21" t="n">
+        <v>900.2623541587977</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>46.23465994248368</v>
+      </c>
+      <c r="F22" t="n">
+        <v>34.67599495686277</v>
+      </c>
+      <c r="G22" t="n">
+        <v>57.79332492810459</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>60.16645226427394</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45.12483919820546</v>
+      </c>
+      <c r="G23" t="n">
+        <v>75.20806533034245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80.00154641733131</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60.00115981299848</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100.0019330216641</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>48.48578570747353</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36.36433928060514</v>
+      </c>
+      <c r="G25" t="n">
+        <v>60.6072321343419</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>315.9712797370332</v>
+      </c>
+      <c r="F26" t="n">
+        <v>236.9784598027749</v>
+      </c>
+      <c r="G26" t="n">
+        <v>394.9640996712915</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1030.658466841817</v>
+      </c>
+      <c r="F27" t="n">
+        <v>772.9938501313623</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1288.323083552271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>71.54109263439858</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.65581947579895</v>
+      </c>
+      <c r="G28" t="n">
+        <v>89.42636579299821</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>93.09841881126023</v>
+      </c>
+      <c r="F29" t="n">
+        <v>69.82381410844519</v>
+      </c>
+      <c r="G29" t="n">
+        <v>116.3730235140753</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>123.7902052325549</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.84265392441614</v>
+      </c>
+      <c r="G30" t="n">
+        <v>154.7377565406936</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>75.02436680760901</v>
+      </c>
+      <c r="F31" t="n">
+        <v>56.26827510570675</v>
+      </c>
+      <c r="G31" t="n">
+        <v>93.78045850951125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>437.4541434177701</v>
+      </c>
+      <c r="F32" t="n">
+        <v>328.0906075633276</v>
+      </c>
+      <c r="G32" t="n">
+        <v>546.8176792722127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1426.920247763631</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1070.190185822723</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1783.650309704539</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>97.59090959594405</v>
+      </c>
+      <c r="F34" t="n">
+        <v>73.19318219695806</v>
+      </c>
+      <c r="G34" t="n">
+        <v>121.98863699493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>126.9977720380314</v>
+      </c>
+      <c r="F35" t="n">
+        <v>95.24832902852353</v>
+      </c>
+      <c r="G35" t="n">
+        <v>158.7472150475392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>168.8651694132066</v>
+      </c>
+      <c r="F36" t="n">
+        <v>126.6488770599049</v>
+      </c>
+      <c r="G36" t="n">
+        <v>211.0814617665082</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>102.3425269170949</v>
+      </c>
+      <c r="F37" t="n">
+        <v>76.75689518782117</v>
+      </c>
+      <c r="G37" t="n">
+        <v>127.9281586463686</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>770.5504052425531</v>
+      </c>
+      <c r="F38" t="n">
+        <v>577.9128039319148</v>
+      </c>
+      <c r="G38" t="n">
+        <v>963.1880065531915</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2513.438246515889</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1885.078684886916</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3141.797808144862</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>136.1637748680227</v>
+      </c>
+      <c r="F40" t="n">
+        <v>102.122831151017</v>
+      </c>
+      <c r="G40" t="n">
+        <v>170.2047185850283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>177.1937172439845</v>
+      </c>
+      <c r="F41" t="n">
+        <v>132.8952879329884</v>
+      </c>
+      <c r="G41" t="n">
+        <v>221.4921465549807</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>235.6092284233201</v>
+      </c>
+      <c r="F42" t="n">
+        <v>176.7069213174901</v>
+      </c>
+      <c r="G42" t="n">
+        <v>294.5115355291501</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>142.7934717717092</v>
+      </c>
+      <c r="F43" t="n">
+        <v>107.0951038287819</v>
+      </c>
+      <c r="G43" t="n">
+        <v>178.4918397146365</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1145.334803887084</v>
+      </c>
+      <c r="F44" t="n">
+        <v>859.0011029153133</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1431.668504858856</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3735.937690214322</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2801.95326766074</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4669.922112767902</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>192.111549087389</v>
+      </c>
+      <c r="F46" t="n">
+        <v>144.0836618155417</v>
+      </c>
+      <c r="G46" t="n">
+        <v>240.1394363592362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>250.0001159727615</v>
+      </c>
+      <c r="F47" t="n">
+        <v>187.5000869795711</v>
+      </c>
+      <c r="G47" t="n">
+        <v>312.5001449659519</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>332.4177366231225</v>
+      </c>
+      <c r="F48" t="n">
+        <v>249.3133024673419</v>
+      </c>
+      <c r="G48" t="n">
+        <v>415.5221707789031</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>201.4652949231046</v>
+      </c>
+      <c r="F49" t="n">
+        <v>151.0989711923284</v>
+      </c>
+      <c r="G49" t="n">
+        <v>251.8316186538807</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1525.742204416369</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1144.306653312277</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1907.177755520461</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4976.778656934757</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3732.583992701067</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6220.973321168447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>271.8785205732257</v>
+      </c>
+      <c r="F52" t="n">
+        <v>203.9088904299193</v>
+      </c>
+      <c r="G52" t="n">
+        <v>339.8481507165321</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>353.8031003169453</v>
+      </c>
+      <c r="F53" t="n">
+        <v>265.352325237709</v>
+      </c>
+      <c r="G53" t="n">
+        <v>442.2538753961817</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>470.4414850368175</v>
+      </c>
+      <c r="F54" t="n">
+        <v>352.8311137776131</v>
+      </c>
+      <c r="G54" t="n">
+        <v>588.0518562960219</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>285.1160515374652</v>
+      </c>
+      <c r="F55" t="n">
+        <v>213.8370386530989</v>
+      </c>
+      <c r="G55" t="n">
+        <v>356.3950644218315</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>rp1000</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E56" t="n">
+        <v>1847.668666352371</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1385.751499764278</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2309.585832940464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>432990.7012255219</v>
-      </c>
-      <c r="F21" t="n">
-        <v>324743.0259191414</v>
-      </c>
-      <c r="G21" t="n">
-        <v>541238.3765319024</v>
+      <c r="E57" t="n">
+        <v>6026.862177091739</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4520.146632818803</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7533.577721364674</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>349.454832173656</v>
+      </c>
+      <c r="F58" t="n">
+        <v>262.0911241302421</v>
+      </c>
+      <c r="G58" t="n">
+        <v>436.8185402170699</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>454.7553178643898</v>
+      </c>
+      <c r="F59" t="n">
+        <v>341.0664883982924</v>
+      </c>
+      <c r="G59" t="n">
+        <v>568.4441473304873</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>604.674653424079</v>
+      </c>
+      <c r="F60" t="n">
+        <v>453.5059900680591</v>
+      </c>
+      <c r="G60" t="n">
+        <v>755.8433167800987</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>366.4694869236843</v>
+      </c>
+      <c r="F61" t="n">
+        <v>274.8521151927632</v>
+      </c>
+      <c r="G61" t="n">
+        <v>458.0868586546052</v>
       </c>
     </row>
   </sheetData>
